--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H2">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>928.4428051307199</v>
+        <v>3714.599165841286</v>
       </c>
       <c r="R2">
-        <v>928.4428051307199</v>
+        <v>33431.39249257158</v>
       </c>
       <c r="S2">
-        <v>0.05325320874270398</v>
+        <v>0.1577214413026566</v>
       </c>
       <c r="T2">
-        <v>0.05325320874270398</v>
+        <v>0.1577214413026567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H3">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>807.7345776265794</v>
+        <v>3018.440601680826</v>
       </c>
       <c r="R3">
-        <v>807.7345776265794</v>
+        <v>27165.96541512743</v>
       </c>
       <c r="S3">
-        <v>0.04632968001189029</v>
+        <v>0.1281626309943287</v>
       </c>
       <c r="T3">
-        <v>0.04632968001189029</v>
+        <v>0.1281626309943287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H4">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I4">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J4">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>117.2507561876871</v>
+        <v>449.8368998715446</v>
       </c>
       <c r="R4">
-        <v>117.2507561876871</v>
+        <v>4048.532098843902</v>
       </c>
       <c r="S4">
-        <v>0.006725216631544332</v>
+        <v>0.01910002157198845</v>
       </c>
       <c r="T4">
-        <v>0.006725216631544332</v>
+        <v>0.01910002157198845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H5">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>2846.864431611903</v>
+        <v>3065.590981613948</v>
       </c>
       <c r="R5">
-        <v>2846.864431611903</v>
+        <v>27590.31883452554</v>
       </c>
       <c r="S5">
-        <v>0.1632891816286549</v>
+        <v>0.1301646305504061</v>
       </c>
       <c r="T5">
-        <v>0.1632891816286549</v>
+        <v>0.1301646305504061</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H6">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J6">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>2476.739360271539</v>
+        <v>2491.064008235845</v>
       </c>
       <c r="R6">
-        <v>2476.739360271539</v>
+        <v>22419.5760741226</v>
       </c>
       <c r="S6">
-        <v>0.1420597126984482</v>
+        <v>0.1057702832028573</v>
       </c>
       <c r="T6">
-        <v>0.1420597126984482</v>
+        <v>0.1057702832028573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H7">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J7">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>359.523500559982</v>
+        <v>371.2421938077572</v>
       </c>
       <c r="R7">
-        <v>359.523500559982</v>
+        <v>3341.179744269814</v>
       </c>
       <c r="S7">
-        <v>0.02062138875698729</v>
+        <v>0.01576289964692827</v>
       </c>
       <c r="T7">
-        <v>0.02062138875698729</v>
+        <v>0.01576289964692827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H8">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J8">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N8">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q8">
-        <v>4958.201857021912</v>
+        <v>5399.458694943541</v>
       </c>
       <c r="R8">
-        <v>4958.201857021912</v>
+        <v>48595.12825449187</v>
       </c>
       <c r="S8">
-        <v>0.2843903329546238</v>
+        <v>0.2292603776611744</v>
       </c>
       <c r="T8">
-        <v>0.2843903329546238</v>
+        <v>0.2292603776611744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H9">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J9">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N9">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P9">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q9">
-        <v>4313.578672414877</v>
+        <v>4387.538096112443</v>
       </c>
       <c r="R9">
-        <v>4313.578672414877</v>
+        <v>39487.84286501199</v>
       </c>
       <c r="S9">
-        <v>0.2474163235481621</v>
+        <v>0.1862943487019391</v>
       </c>
       <c r="T9">
-        <v>0.2474163235481621</v>
+        <v>0.1862943487019391</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H10">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J10">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N10">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q10">
-        <v>626.1591062522824</v>
+        <v>653.8729084562652</v>
       </c>
       <c r="R10">
-        <v>626.1591062522824</v>
+        <v>5884.856176106387</v>
       </c>
       <c r="S10">
-        <v>0.03591495502698516</v>
+        <v>0.02776336636772094</v>
       </c>
       <c r="T10">
-        <v>0.03591495502698516</v>
+        <v>0.02776336636772093</v>
       </c>
     </row>
   </sheetData>
